--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>用例名称</t>
   </si>
@@ -62,7 +62,7 @@
   </si>
   <si>
     <t>{
-  "csrfmiddlewaretoken": "$.csrftoken",
+  "csrfmiddlewaretoken": "$.cookies.csrftoken",
    "next": "/?format=json",
    "username": "test001",
    "password": "ceshi001",
@@ -70,22 +70,43 @@
 }</t>
   </si>
   <si>
-    <t>$.cookies</t>
-  </si>
-  <si>
     <t>{"$.data.goods": "http://49.235.168.69:8000/goods/?format=json"}</t>
   </si>
   <si>
+    <t>收藏</t>
+  </si>
+  <si>
+    <t>http://49.235.168.69:8000/userfavs/</t>
+  </si>
+  <si>
+    <t>{"X-CSRFToken": "$.cookies.csrftoken"}</t>
+  </si>
+  <si>
+    <t>{"goods": 1}</t>
+  </si>
+  <si>
+    <t>{"$.data.goods": 1}</t>
+  </si>
+  <si>
     <t>收藏列表</t>
   </si>
   <si>
     <t>http://49.235.168.69:8000/userfavs/?format=json</t>
   </si>
   <si>
-    <t>{"Cookie": "$.cookies"}</t>
-  </si>
-  <si>
     <t>{"$.data[0].goods.id": 1}</t>
+  </si>
+  <si>
+    <t>取消收藏</t>
+  </si>
+  <si>
+    <t>http://49.235.168.69:8000/userfavs/1/</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>{"$.data": {}}</t>
   </si>
 </sst>
 </file>
@@ -93,12 +114,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +140,110 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="9.8"/>
+      <color rgb="FF080808"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -127,122 +252,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +299,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,24 +490,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,17 +504,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +523,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -536,6 +543,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -583,137 +610,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +761,9 @@
       <alignment horizontal="fill" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,19 +1114,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="23" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.25" style="1" customWidth="1"/>
     <col min="10" max="255" width="23" style="1" customWidth="1"/>
@@ -1148,7 +1179,6 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
     </row>
@@ -1169,34 +1199,83 @@
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
